--- a/medicine/Enfance/Bruce_Norman/Bruce_Norman.xlsx
+++ b/medicine/Enfance/Bruce_Norman/Bruce_Norman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bruce Norman, pseudonyme de Norman (George) Denny, né en 1901, dans le Kent, et mort en 1982, à Hove, dans le Sussex, est un auteur britannique de roman policier et de roman d’aventures.  Il a signé de son nom des traductions et des textes littéraires, ainsi que, sous le pseudonyme de Norman Dale, des ouvrages de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant son enfance, il vit deux ans à Mexico alors que son père y honore un contrat d'ingénieur minier.
 De retour en Angleterre, il fait ses études et, à l’âge de dix-huit ans, fait le saut en littérature en publiant des nouvelles dans des magazines.  En 1923, il adopte le pseudonyme de Bruce Norman pour se lancer dans la nouvelle policière.  En 1926, il donne son premier roman policier, Les Mille Mains, où enquête le détective James Mallaby, héros qui revient l'année suivante dans Black Pawn.  Il fait paraître ensuite des récits d’aventures et d’espionnage sous ce pseudonyme qu’il abandonne en 1937. 
@@ -547,30 +561,266 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série policière James Mallaby
-The Thousand Hands (1926) Publié en français sous le titre Les Mille Mains, Paris, Librairie des Champs-Élysées, Le Masque no 4, 1927
-Black Pawn (1927)
-Autres romans
-Late of London Wall... (1931)
-The Luck of Jocelyn Pinner, R.N. Being some episodes in the career of a sailor of fortune (1931), roman d’aventures
-Roman signé Norman Denny
-Sweet Confusion. A Novel (1947)
-Ouvrages de littérature d’enfance et de jeunesse signés Norman Dale
-Série Medenham
-The Medenham Carnival (1957)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série policière James Mallaby</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Thousand Hands (1926) Publié en français sous le titre Les Mille Mains, Paris, Librairie des Champs-Élysées, Le Masque no 4, 1927
+Black Pawn (1927)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bruce_Norman</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruce_Norman</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Late of London Wall... (1931)
+The Luck of Jocelyn Pinner, R.N. Being some episodes in the career of a sailor of fortune (1931), roman d’aventures</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bruce_Norman</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruce_Norman</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Roman signé Norman Denny</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sweet Confusion. A Novel (1947)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bruce_Norman</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruce_Norman</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d’enfance et de jeunesse signés Norman Dale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Medenham</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Medenham Carnival (1957)
 All Change for Medenham (1959)
 The Pied Piper of Medenham (1959)
-A Medenham Secret (1962)
-Série Peter, Ginger et Véronique
-Secret Service! (1943) Publié en français sous le titre Service secret, Paris, Desclée de Brouwer, coll. Belle Humeur, 1949
+A Medenham Secret (1962)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bruce_Norman</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruce_Norman</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d’enfance et de jeunesse signés Norman Dale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Peter, Ginger et Véronique</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Secret Service! (1943) Publié en français sous le titre Service secret, Paris, Desclée de Brouwer, coll. Belle Humeur, 1949
 Dangerous Treasure (1944) Publié en français sous le titre Le Trésor mystérieux, Paris, Desclée de Brouwer, coll. Belle Humeur, 1949
-The Best Adventure (1945)  Publié en français sous le titre La Plus Belle Aventure, Paris, Desclée de Brouwer, coll. Belle Humeur, 1949
-Série Tim Forest
-The Exciting Journey (1948) Publié en français sous le titre Un voyage mouvementé, Paris, Desclée de Brouwer, coll. Belle Humeur, 1951
+The Best Adventure (1945)  Publié en français sous le titre La Plus Belle Aventure, Paris, Desclée de Brouwer, coll. Belle Humeur, 1949</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bruce_Norman</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruce_Norman</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d’enfance et de jeunesse signés Norman Dale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Tim Forest</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The Exciting Journey (1948) Publié en français sous le titre Un voyage mouvementé, Paris, Desclée de Brouwer, coll. Belle Humeur, 1951
 Merry Christmas (1948) Publié en français sous le titre Une mystérieuse aventure à Noël, Paris, Desclée de Brouwer, coll. Belle Humeur, 1951
-Skeleton Island (1949) Publié en français sous le titre L'Île au squelette, Paris, Desclée de Brouwer, coll. Belle Humeur, 1953
-Autres ouvrages
+Skeleton Island (1949) Publié en français sous le titre L'Île au squelette, Paris, Desclée de Brouwer, coll. Belle Humeur, 1953</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bruce_Norman</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruce_Norman</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d’enfance et de jeunesse signés Norman Dale</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Clockwork Castle (1952) Publié en français sous le titre Le château fantastique, Paris, Desclée de Brouwer, coll. Belle Humeur, 1954
 The Valley of the Snake (1953) Publié en français sous le titre La Vallée du Serpent, Paris, Desclée de Brouwer, coll. Belle Humeur, 1954
 The Secret Motorcar (1954) Publié en français sous le titre La Mystérieuse 4 CV, Paris, Delagrave, coll. Bouton d'or no 17, 1965
@@ -582,15 +832,92 @@
 Look at Farms (1960)
 The Six Stones Faces (1960)
 The House in Cobble Lane (1964)
-Nouvelles
-Signées Bruce Norman
-Tanks Listens-In (1923)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bruce_Norman</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruce_Norman</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Signées Bruce Norman</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Tanks Listens-In (1923)
 A Matter of Disguise (1924)
 Paying Prisoner (1935)
 The Lost Garden (1936)
 The Perfect Conspiracy (1936)
-Profit…No Loss (1937)
-Signées Norman Denny
+Profit…No Loss (1937)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bruce_Norman</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruce_Norman</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Signées Norman Denny</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The New Man at Hill’s (1919)
 The Blackmailing of Summers (1919)
 The Crowning Achievement (1920)
@@ -606,36 +933,73 @@
 Behind the Screen (1924)
 Heritage (1924)
 A Sense of Drama (1925)
-Autre publication signée Norman Denny
-The Bayeux Tapestry. The Story of the Norman Conquest (1966)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bruce_Norman</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bruce_Norman</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bruce_Norman</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruce_Norman</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Autre publication signée Norman Denny</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>The Bayeux Tapestry. The Story of the Norman Conquest (1966)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bruce_Norman</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruce_Norman</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Jacques Baudou et Jean-Jacques Schleret, Le Vrai Visage du Masque, vol. 1, Paris, Futuropolis, 1984, 476 p. (OCLC 311506692), p. 324.</t>
         </is>
